--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H2">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I2">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J2">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N2">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O2">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P2">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q2">
-        <v>0.01476816391555556</v>
+        <v>0.04075656819111112</v>
       </c>
       <c r="R2">
-        <v>0.13291347524</v>
+        <v>0.3668091137200001</v>
       </c>
       <c r="S2">
-        <v>0.0003080330512068506</v>
+        <v>0.0008260512552209778</v>
       </c>
       <c r="T2">
-        <v>0.0003080330512068506</v>
+        <v>0.0008260512552209779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H3">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I3">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J3">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.346137</v>
       </c>
       <c r="N3">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O3">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P3">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q3">
-        <v>3.359547748967334</v>
+        <v>3.813886563565334</v>
       </c>
       <c r="R3">
-        <v>30.23592974070601</v>
+        <v>34.32497907208801</v>
       </c>
       <c r="S3">
-        <v>0.07007314854485652</v>
+        <v>0.07729958440884314</v>
       </c>
       <c r="T3">
-        <v>0.07007314854485652</v>
+        <v>0.07729958440884316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H4">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I4">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J4">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N4">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O4">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P4">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q4">
-        <v>0.345675749346889</v>
+        <v>0.484592696800889</v>
       </c>
       <c r="R4">
-        <v>3.111081744122001</v>
+        <v>4.361334271208</v>
       </c>
       <c r="S4">
-        <v>0.007210074076126688</v>
+        <v>0.009821690668023341</v>
       </c>
       <c r="T4">
-        <v>0.007210074076126688</v>
+        <v>0.009821690668023342</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>15.697404</v>
       </c>
       <c r="I5">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J5">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N5">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O5">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P5">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q5">
-        <v>0.05396418663999999</v>
+        <v>0.13118669354</v>
       </c>
       <c r="R5">
-        <v>0.4856776797599999</v>
+        <v>1.18068024186</v>
       </c>
       <c r="S5">
-        <v>0.001125580211708386</v>
+        <v>0.002658882670367747</v>
       </c>
       <c r="T5">
-        <v>0.001125580211708385</v>
+        <v>0.002658882670367747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>15.697404</v>
       </c>
       <c r="I6">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J6">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,13 +812,13 @@
         <v>2.346137</v>
       </c>
       <c r="N6">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O6">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P6">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q6">
         <v>12.276086776116</v>
@@ -827,10 +827,10 @@
         <v>110.484780985044</v>
       </c>
       <c r="S6">
-        <v>0.2560535275847004</v>
+        <v>0.2488108626580566</v>
       </c>
       <c r="T6">
-        <v>0.2560535275847003</v>
+        <v>0.2488108626580566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>15.697404</v>
       </c>
       <c r="I7">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J7">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N7">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O7">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P7">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q7">
-        <v>1.263129984292</v>
+        <v>1.559800454956</v>
       </c>
       <c r="R7">
-        <v>11.368169858628</v>
+        <v>14.038204094604</v>
       </c>
       <c r="S7">
-        <v>0.02634625301812201</v>
+        <v>0.03161392582586647</v>
       </c>
       <c r="T7">
-        <v>0.026346253018122</v>
+        <v>0.03161392582586647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H8">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I8">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J8">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N8">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O8">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P8">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q8">
-        <v>0.01892056631111111</v>
+        <v>0.08538448586111111</v>
       </c>
       <c r="R8">
-        <v>0.1702850968</v>
+        <v>0.76846037275</v>
       </c>
       <c r="S8">
-        <v>0.0003946434915469893</v>
+        <v>0.001730566749173731</v>
       </c>
       <c r="T8">
-        <v>0.0003946434915469892</v>
+        <v>0.001730566749173731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H9">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I9">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J9">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>2.346137</v>
       </c>
       <c r="N9">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O9">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P9">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q9">
-        <v>4.304160376546667</v>
+        <v>7.990043269483333</v>
       </c>
       <c r="R9">
-        <v>38.73744338892</v>
+        <v>71.91038942535</v>
       </c>
       <c r="S9">
-        <v>0.08977579482814275</v>
+        <v>0.1619416345625025</v>
       </c>
       <c r="T9">
-        <v>0.08977579482814274</v>
+        <v>0.1619416345625026</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H10">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I10">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J10">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N10">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O10">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P10">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q10">
-        <v>0.4428702833377778</v>
+        <v>1.015215463538889</v>
       </c>
       <c r="R10">
-        <v>3.98583255004</v>
+        <v>9.136939171849999</v>
       </c>
       <c r="S10">
-        <v>0.009237349033056577</v>
+        <v>0.020576315553451</v>
       </c>
       <c r="T10">
-        <v>0.009237349033056577</v>
+        <v>0.020576315553451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H11">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I11">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J11">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N11">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O11">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P11">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q11">
-        <v>0.06449568822666667</v>
+        <v>0.1265796076455556</v>
       </c>
       <c r="R11">
-        <v>0.58046119404</v>
+        <v>1.13921646881</v>
       </c>
       <c r="S11">
-        <v>0.0013452453363698</v>
+        <v>0.002565506577754369</v>
       </c>
       <c r="T11">
-        <v>0.0013452453363698</v>
+        <v>0.002565506577754369</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H12">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I12">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J12">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,25 +1184,25 @@
         <v>2.346137</v>
       </c>
       <c r="N12">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O12">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P12">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q12">
-        <v>14.671853958214</v>
+        <v>11.84496846145267</v>
       </c>
       <c r="R12">
-        <v>132.046685623926</v>
+        <v>106.604716153074</v>
       </c>
       <c r="S12">
-        <v>0.3060242266711022</v>
+        <v>0.2400729870031071</v>
       </c>
       <c r="T12">
-        <v>0.3060242266711022</v>
+        <v>0.2400729870031072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H13">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I13">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J13">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N13">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O13">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P13">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q13">
-        <v>1.509638942584667</v>
+        <v>1.505022531370445</v>
       </c>
       <c r="R13">
-        <v>13.586750483262</v>
+        <v>13.545202782334</v>
       </c>
       <c r="S13">
-        <v>0.0314879149746724</v>
+        <v>0.03050369072648155</v>
       </c>
       <c r="T13">
-        <v>0.0314879149746724</v>
+        <v>0.03050369072648155</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H14">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I14">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J14">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N14">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O14">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P14">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q14">
-        <v>0.01368136891333333</v>
+        <v>0.06742016869</v>
       </c>
       <c r="R14">
-        <v>0.12313232022</v>
+        <v>0.60678151821</v>
       </c>
       <c r="S14">
-        <v>0.0002853647775822432</v>
+        <v>0.001366467233267469</v>
       </c>
       <c r="T14">
-        <v>0.0002853647775822432</v>
+        <v>0.00136646723326747</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H15">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I15">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J15">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>2.346137</v>
       </c>
       <c r="N15">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O15">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P15">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q15">
-        <v>3.112317306227001</v>
+        <v>6.308992314426001</v>
       </c>
       <c r="R15">
-        <v>28.010855756043</v>
+        <v>56.78093082983401</v>
       </c>
       <c r="S15">
-        <v>0.06491643792978066</v>
+        <v>0.1278702121354693</v>
       </c>
       <c r="T15">
-        <v>0.06491643792978066</v>
+        <v>0.1278702121354693</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H16">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I16">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J16">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N16">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O16">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P16">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q16">
-        <v>0.3202373347323334</v>
+        <v>0.8016210101660001</v>
       </c>
       <c r="R16">
-        <v>2.882136012591</v>
+        <v>7.214589091494</v>
       </c>
       <c r="S16">
-        <v>0.006679481883597402</v>
+        <v>0.0162471982075162</v>
       </c>
       <c r="T16">
-        <v>0.006679481883597402</v>
+        <v>0.01624719820751621</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H17">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I17">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J17">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N17">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O17">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P17">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q17">
-        <v>0.02450286424444444</v>
+        <v>0.01209268326777778</v>
       </c>
       <c r="R17">
-        <v>0.2205257782</v>
+        <v>0.10883414941</v>
       </c>
       <c r="S17">
-        <v>0.0005110785660073392</v>
+        <v>0.0002450936532609278</v>
       </c>
       <c r="T17">
-        <v>0.0005110785660073391</v>
+        <v>0.0002450936532609279</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H18">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I18">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J18">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,25 +1556,25 @@
         <v>2.346137</v>
       </c>
       <c r="N18">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O18">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P18">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q18">
-        <v>5.574053950536667</v>
+        <v>1.131599746479333</v>
       </c>
       <c r="R18">
-        <v>50.16648555483</v>
+        <v>10.184397718314</v>
       </c>
       <c r="S18">
-        <v>0.1162631221994274</v>
+        <v>0.02293518400773649</v>
       </c>
       <c r="T18">
-        <v>0.1162631221994273</v>
+        <v>0.0229351840077365</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H19">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I19">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J19">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N19">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O19">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P19">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q19">
-        <v>0.5735341243011112</v>
+        <v>0.1437811439082222</v>
       </c>
       <c r="R19">
-        <v>5.161807118710001</v>
+        <v>1.294030295174</v>
       </c>
       <c r="S19">
-        <v>0.01196272382199344</v>
+        <v>0.002914146103900831</v>
       </c>
       <c r="T19">
-        <v>0.01196272382199344</v>
+        <v>0.002914146103900831</v>
       </c>
     </row>
   </sheetData>
